--- a/Entrenamientos/Procesado_Tramos_simulacion.xlsx
+++ b/Entrenamientos/Procesado_Tramos_simulacion.xlsx
@@ -444,16 +444,16 @@
         <v>25</v>
       </c>
       <c r="E2">
-        <v>14.49735176673176</v>
+        <v>344.0415503671599</v>
       </c>
       <c r="F2">
-        <v>4.583224963538349</v>
+        <v>3.492272793926644</v>
       </c>
       <c r="G2">
-        <v>37.87796860074087</v>
+        <v>1.596116034322399</v>
       </c>
       <c r="H2">
-        <v>13.51434613726385</v>
+        <v>329.5441984407484</v>
       </c>
       <c r="I2" t="s">
         <v>8</v>
@@ -473,16 +473,16 @@
         <v>26</v>
       </c>
       <c r="E3">
-        <v>-0.9300553700454586</v>
+        <v>13.56729663011254</v>
       </c>
       <c r="F3">
         <v>1.57454844203958</v>
       </c>
       <c r="G3">
-        <v>3.192242118084245</v>
+        <v>-0.2188322408916709</v>
       </c>
       <c r="H3">
-        <v>14.49735176673176</v>
+        <v>344.0415503671599</v>
       </c>
       <c r="I3" t="s">
         <v>8</v>
@@ -502,16 +502,16 @@
         <v>37</v>
       </c>
       <c r="E4">
-        <v>3.049569347579441</v>
+        <v>168.9935131340457</v>
       </c>
       <c r="F4">
-        <v>1.083380480819775</v>
+        <v>1.731397461341183</v>
       </c>
       <c r="G4">
-        <v>20.56799353206276</v>
+        <v>0.3711593507547151</v>
       </c>
       <c r="H4">
-        <v>16.77651497389409</v>
+        <v>509.9854940876567</v>
       </c>
       <c r="I4" t="s">
         <v>8</v>
@@ -531,16 +531,16 @@
         <v>38</v>
       </c>
       <c r="E5">
-        <v>0.7149402151148934</v>
+        <v>17.33180625774378</v>
       </c>
       <c r="F5">
         <v>1.57520843538257</v>
       </c>
       <c r="G5">
-        <v>-1.638672891512761</v>
+        <v>-0.0675955599860016</v>
       </c>
       <c r="H5">
-        <v>16.61686574426574</v>
+        <v>526.6023601313181</v>
       </c>
       <c r="I5" t="s">
         <v>8</v>
@@ -560,16 +560,16 @@
         <v>41</v>
       </c>
       <c r="E6">
-        <v>-4.159489788195263</v>
+        <v>48.49833201473393</v>
       </c>
       <c r="F6">
-        <v>4.225251514879493</v>
+        <v>3.40763809526817</v>
       </c>
       <c r="G6">
-        <v>-0.8644926021437418</v>
+        <v>0.07414374889212304</v>
       </c>
       <c r="H6">
-        <v>18.69965606743462</v>
+        <v>579.2601818838048</v>
       </c>
       <c r="I6" t="s">
         <v>8</v>
@@ -589,16 +589,16 @@
         <v>42</v>
       </c>
       <c r="E7">
-        <v>1.862580075471881</v>
+        <v>15.03489657772798</v>
       </c>
       <c r="F7">
         <v>2.835582102804634</v>
       </c>
       <c r="G7">
-        <v>-0.1351484664724482</v>
+        <v>-0.01674270518462065</v>
       </c>
       <c r="H7">
-        <v>13.17231617118538</v>
+        <v>592.4324984037958</v>
       </c>
       <c r="I7" t="s">
         <v>8</v>
@@ -618,16 +618,16 @@
         <v>46</v>
       </c>
       <c r="E8">
-        <v>-2.670484737558704</v>
+        <v>55.21180257348544</v>
       </c>
       <c r="F8">
-        <v>6.362387209766164</v>
+        <v>4.760357197651417</v>
       </c>
       <c r="G8">
-        <v>-5.122124177779037</v>
+        <v>0.2477469273428186</v>
       </c>
       <c r="H8">
-        <v>14.10122426989557</v>
+        <v>650.3147855965394</v>
       </c>
       <c r="I8" t="s">
         <v>8</v>
@@ -647,16 +647,16 @@
         <v>80</v>
       </c>
       <c r="E9">
-        <v>-0.01602547389566311</v>
+        <v>560.0692098765884</v>
       </c>
       <c r="F9">
-        <v>10345.74747559693</v>
+        <v>3.98256430003651</v>
       </c>
       <c r="G9">
-        <v>85113.07833997658</v>
+        <v>-2.435372970096637</v>
       </c>
       <c r="H9">
-        <v>12.46266332900209</v>
+        <v>1210.400021248792</v>
       </c>
       <c r="I9" t="s">
         <v>8</v>
@@ -676,16 +676,16 @@
         <v>161</v>
       </c>
       <c r="E10">
-        <v>6.83308634303188</v>
+        <v>1382.447533600548</v>
       </c>
       <c r="F10">
-        <v>7.579815498116035</v>
+        <v>-3.902847856084686</v>
       </c>
       <c r="G10">
-        <v>476.1790025936839</v>
+        <v>2.353631628237696</v>
       </c>
       <c r="H10">
-        <v>19.48244280172493</v>
+        <v>2586.014462618665</v>
       </c>
       <c r="I10" t="s">
         <v>8</v>
@@ -705,16 +705,16 @@
         <v>171</v>
       </c>
       <c r="E11">
-        <v>3.560201611145473</v>
+        <v>199.1265320145867</v>
       </c>
       <c r="F11">
-        <v>-2.218425629653668</v>
+        <v>-3.39453113286161</v>
       </c>
       <c r="G11">
-        <v>-9.284131052862879</v>
+        <v>-0.1659918344285073</v>
       </c>
       <c r="H11">
-        <v>21.92597211629942</v>
+        <v>2781.580798979671</v>
       </c>
       <c r="I11" t="s">
         <v>8</v>
@@ -734,16 +734,16 @@
         <v>176</v>
       </c>
       <c r="E12">
-        <v>-5.955350130337546</v>
+        <v>91.86067101041317</v>
       </c>
       <c r="F12">
-        <v>-2.610206872734305</v>
+        <v>-2.756201684925812</v>
       </c>
       <c r="G12">
-        <v>-3.829883069750574</v>
+        <v>0.2482922711943954</v>
       </c>
       <c r="H12">
-        <v>19.24371385316517</v>
+        <v>2879.396820060103</v>
       </c>
       <c r="I12" t="s">
         <v>8</v>
@@ -763,16 +763,16 @@
         <v>177</v>
       </c>
       <c r="E13">
-        <v>-3.205855455924292</v>
+        <v>13.58046852523921</v>
       </c>
       <c r="F13">
         <v>-0.6139341684454964</v>
       </c>
       <c r="G13">
-        <v>1.042722112016595</v>
+        <v>-0.2461488251019247</v>
       </c>
       <c r="H13">
-        <v>16.7863238590427</v>
+        <v>2896.183144057145</v>
       </c>
       <c r="I13" t="s">
         <v>8</v>
@@ -792,16 +792,16 @@
         <v>286</v>
       </c>
       <c r="E14">
-        <v>3.842101258976944</v>
+        <v>1755.103346009126</v>
       </c>
       <c r="F14">
-        <v>-11.86164649976715</v>
+        <v>-2.486692203613646</v>
       </c>
       <c r="G14">
-        <v>1516.711582439376</v>
+        <v>3.32023723483058</v>
       </c>
       <c r="H14">
-        <v>17.59072469367922</v>
+        <v>4647.444385105156</v>
       </c>
       <c r="I14" t="s">
         <v>8</v>
@@ -821,16 +821,16 @@
         <v>287</v>
       </c>
       <c r="E15">
-        <v>9.450112517309869</v>
+        <v>26.87268222576495</v>
       </c>
       <c r="F15">
         <v>-4.904003908876237</v>
       </c>
       <c r="G15">
-        <v>-0.1633079437549898</v>
+        <v>-0.05742926703369799</v>
       </c>
       <c r="H15">
-        <v>17.42256966209535</v>
+        <v>4664.86695859151</v>
       </c>
       <c r="I15" t="s">
         <v>8</v>
@@ -850,16 +850,16 @@
         <v>288</v>
       </c>
       <c r="E16">
-        <v>-8.551254312665041</v>
+        <v>18.32142955760628</v>
       </c>
       <c r="F16">
         <v>-5.685938728369462</v>
       </c>
       <c r="G16">
-        <v>-0.22549824342353</v>
+        <v>0.1052479458827658</v>
       </c>
       <c r="H16">
-        <v>26.87268217940522</v>
+        <v>4691.739640817275</v>
       </c>
       <c r="I16" t="s">
         <v>8</v>
@@ -879,16 +879,16 @@
         <v>334</v>
       </c>
       <c r="E17">
-        <v>-3.126755034129493</v>
+        <v>778.6626264767738</v>
       </c>
       <c r="F17">
-        <v>-0.3388983950038605</v>
+        <v>-5.184267536920604</v>
       </c>
       <c r="G17">
-        <v>584.5143409763593</v>
+        <v>-2.347143802750921</v>
       </c>
       <c r="H17">
-        <v>15.10485307395459</v>
+        <v>5473.529010935451</v>
       </c>
       <c r="I17" t="s">
         <v>8</v>
@@ -908,16 +908,16 @@
         <v>342</v>
       </c>
       <c r="E18">
-        <v>-1.659041678090162</v>
+        <v>118.2246671331604</v>
       </c>
       <c r="F18">
-        <v>-0.8755566558805443</v>
+        <v>-1.272944327177375</v>
       </c>
       <c r="G18">
-        <v>-33.82622090013761</v>
+        <v>0.4746819056162278</v>
       </c>
       <c r="H18">
-        <v>14.61962643138347</v>
+        <v>5593.412732648906</v>
       </c>
       <c r="I18" t="s">
         <v>8</v>
@@ -937,16 +937,16 @@
         <v>522</v>
       </c>
       <c r="E19">
-        <v>4.47897412622669</v>
+        <v>2858.371279980439</v>
       </c>
       <c r="F19">
-        <v>9.206846616996359</v>
+        <v>-4.949172023586057</v>
       </c>
       <c r="G19">
-        <v>-1461.524499353159</v>
+        <v>-2.290160995983005</v>
       </c>
       <c r="H19">
-        <v>19.16595933870542</v>
+        <v>8447.305038246473</v>
       </c>
       <c r="I19" t="s">
         <v>8</v>
@@ -966,16 +966,16 @@
         <v>527</v>
       </c>
       <c r="E20">
-        <v>1.805811903643935</v>
+        <v>102.3123986075007</v>
       </c>
       <c r="F20">
-        <v>-9.092103580386771</v>
+        <v>-9.70486363213517</v>
       </c>
       <c r="G20">
-        <v>18.18430383870142</v>
+        <v>0.3209526194120306</v>
       </c>
       <c r="H20">
-        <v>21.16958231187871</v>
+        <v>8547.811624893384</v>
       </c>
       <c r="I20" t="s">
         <v>8</v>
@@ -995,16 +995,16 @@
         <v>529</v>
       </c>
       <c r="E21">
-        <v>-0.3654994840441255</v>
+        <v>30.59651750363264</v>
       </c>
       <c r="F21">
-        <v>-11.40306317660193</v>
+        <v>-9.861219867994032</v>
       </c>
       <c r="G21">
-        <v>13.84699136879932</v>
+        <v>-0.1654132108420091</v>
       </c>
       <c r="H21">
-        <v>11.14159906875716</v>
+        <v>8578.773641919104</v>
       </c>
       <c r="I21" t="s">
         <v>8</v>
@@ -1024,16 +1024,16 @@
         <v>530</v>
       </c>
       <c r="E22">
-        <v>4.582139121339434</v>
+        <v>24.03705720769904</v>
       </c>
       <c r="F22">
         <v>-9.279345091961993</v>
       </c>
       <c r="G22">
-        <v>0.09545229715322862</v>
+        <v>0.01819589233524954</v>
       </c>
       <c r="H22">
-        <v>19.45491770034702</v>
+        <v>8598.228560076388</v>
       </c>
       <c r="I22" t="s">
         <v>8</v>
@@ -1053,16 +1053,16 @@
         <v>636</v>
       </c>
       <c r="E23">
-        <v>-12.5700339251692</v>
+        <v>1513.274544561578</v>
       </c>
       <c r="F23">
-        <v>-9.694680914529831</v>
+        <v>-9.238281327998019</v>
       </c>
       <c r="G23">
-        <v>286.1939825228526</v>
+        <v>-2.377273894165573</v>
       </c>
       <c r="H23">
-        <v>12.72336526170929</v>
+        <v>10124.07313860971</v>
       </c>
       <c r="I23" t="s">
         <v>8</v>
@@ -1082,16 +1082,16 @@
         <v>638</v>
       </c>
       <c r="E24">
-        <v>1.192741285013511</v>
+        <v>24.54097426583394</v>
       </c>
       <c r="F24">
-        <v>-9.949221391134529</v>
+        <v>-9.954147471937697</v>
       </c>
       <c r="G24">
-        <v>11.47914570582406</v>
+        <v>0.5579098389375479</v>
       </c>
       <c r="H24">
-        <v>11.8812093040559</v>
+        <v>10147.42137152125</v>
       </c>
       <c r="I24" t="s">
         <v>8</v>
@@ -1111,16 +1111,16 @@
         <v>651</v>
       </c>
       <c r="E25">
-        <v>6.444380859693165</v>
+        <v>229.7816471182123</v>
       </c>
       <c r="F25">
-        <v>-9.326851950332824</v>
+        <v>-9.022411740833657</v>
       </c>
       <c r="G25">
-        <v>-9.123227650243702</v>
+        <v>-0.2558670563346051</v>
       </c>
       <c r="H25">
-        <v>20.98580748200655</v>
+        <v>10370.7586377494</v>
       </c>
       <c r="I25" t="s">
         <v>8</v>
@@ -1140,16 +1140,16 @@
         <v>745</v>
       </c>
       <c r="E26">
-        <v>-6.235125337802359</v>
+        <v>1322.770446273986</v>
       </c>
       <c r="F26">
-        <v>-8.911977222224275</v>
+        <v>-8.465904839481219</v>
       </c>
       <c r="G26">
-        <v>-1050.166744926623</v>
+        <v>4.950156921523133</v>
       </c>
       <c r="H26">
-        <v>12.80863841328369</v>
+        <v>11699.76420950433</v>
       </c>
       <c r="I26" t="s">
         <v>8</v>
@@ -1169,16 +1169,16 @@
         <v>808</v>
       </c>
       <c r="E27">
-        <v>-1.144913494834928</v>
+        <v>879.3661789674698</v>
       </c>
       <c r="F27">
-        <v>-9.506097744706876</v>
+        <v>-9.450384387180872</v>
       </c>
       <c r="G27">
-        <v>1968.410249256452</v>
+        <v>-2.562822532464561</v>
       </c>
       <c r="H27">
-        <v>12.12632921761221</v>
+        <v>12580.27530196573</v>
       </c>
       <c r="I27" t="s">
         <v>8</v>
@@ -1198,16 +1198,16 @@
         <v>810</v>
       </c>
       <c r="E28">
-        <v>0.03610783653860494</v>
+        <v>23.27719826512475</v>
       </c>
       <c r="F28">
-        <v>-9.311549489191867</v>
+        <v>-9.945059851748946</v>
       </c>
       <c r="G28">
-        <v>59.82950362057642</v>
+        <v>0.09280815982713665</v>
       </c>
       <c r="H28">
-        <v>11.51698358516654</v>
+        <v>12603.51639240188</v>
       </c>
       <c r="I28" t="s">
         <v>8</v>
@@ -1227,16 +1227,16 @@
         <v>811</v>
       </c>
       <c r="E29">
-        <v>0.3980634959916038</v>
+        <v>12.15827774819991</v>
       </c>
       <c r="F29">
         <v>-9.385389381431935</v>
       </c>
       <c r="G29">
-        <v>-3.158396919915942</v>
+        <v>-0.1034063002761221</v>
       </c>
       <c r="H29">
-        <v>11.76021404512525</v>
+        <v>12615.27660673629</v>
       </c>
       <c r="I29" t="s">
         <v>8</v>
@@ -1256,16 +1256,16 @@
         <v>813</v>
       </c>
       <c r="E30">
-        <v>13.86186525759101</v>
+        <v>40.33251286838276</v>
       </c>
       <c r="F30">
-        <v>-5.84742951614599</v>
+        <v>-6.42479720367449</v>
       </c>
       <c r="G30">
-        <v>0.4115265498408198</v>
+        <v>0.141437395741504</v>
       </c>
       <c r="H30">
-        <v>14.31236918751992</v>
+        <v>12641.74725379177</v>
       </c>
       <c r="I30" t="s">
         <v>8</v>
@@ -1285,16 +1285,16 @@
         <v>851</v>
       </c>
       <c r="E31">
-        <v>-14.27253578478725</v>
+        <v>561.0455563968753</v>
       </c>
       <c r="F31">
-        <v>0.005194059082590345</v>
+        <v>4.029840037148754</v>
       </c>
       <c r="G31">
-        <v>126.9194535858877</v>
+        <v>-3.228726121143762</v>
       </c>
       <c r="H31">
-        <v>13.29009330331575</v>
+        <v>13217.06534632142</v>
       </c>
       <c r="I31" t="s">
         <v>8</v>
@@ -1314,16 +1314,16 @@
         <v>858</v>
       </c>
       <c r="E32">
-        <v>1.940332544407156</v>
+        <v>104.9411033259221</v>
       </c>
       <c r="F32">
-        <v>4.953157799943178</v>
+        <v>7.35038777279619</v>
       </c>
       <c r="G32">
-        <v>30.21953109424206</v>
+        <v>0.5587509355297379</v>
       </c>
       <c r="H32">
-        <v>14.72713745160539</v>
+        <v>13320.0661170089</v>
       </c>
       <c r="I32" t="s">
         <v>8</v>
@@ -1343,16 +1343,16 @@
         <v>884</v>
       </c>
       <c r="E33">
-        <v>0.06021377501505043</v>
+        <v>442.239946164329</v>
       </c>
       <c r="F33">
-        <v>276.782168260586</v>
+        <v>-2.995590014584259</v>
       </c>
       <c r="G33">
-        <v>-17016.32036429315</v>
+        <v>-2.31687999893804</v>
       </c>
       <c r="H33">
-        <v>14.52938480427613</v>
+        <v>13762.24584909531</v>
       </c>
       <c r="I33" t="s">
         <v>8</v>
@@ -1372,16 +1372,16 @@
         <v>940</v>
       </c>
       <c r="E34">
-        <v>0.43020830677197</v>
+        <v>803.8684356637259</v>
       </c>
       <c r="F34">
-        <v>-163.3427397504651</v>
+        <v>1.64528195886503</v>
       </c>
       <c r="G34">
-        <v>6864.826803492524</v>
+        <v>3.67386674782785</v>
       </c>
       <c r="H34">
-        <v>15.02537105308258</v>
+        <v>14565.68407707633</v>
       </c>
       <c r="I34" t="s">
         <v>8</v>
@@ -1401,16 +1401,16 @@
         <v>954</v>
       </c>
       <c r="E35">
-        <v>3.269550988924648</v>
+        <v>225.0946341554045</v>
       </c>
       <c r="F35">
-        <v>-0.04412396279037613</v>
+        <v>0.03624061437360713</v>
       </c>
       <c r="G35">
-        <v>-83.61870353934914</v>
+        <v>-1.214580773440048</v>
       </c>
       <c r="H35">
-        <v>19.34070574714762</v>
+        <v>14787.5091602212</v>
       </c>
       <c r="I35" t="s">
         <v>8</v>
@@ -1430,16 +1430,16 @@
         <v>1053</v>
       </c>
       <c r="E36">
-        <v>-4.554209113931195</v>
+        <v>1544.238605138566</v>
       </c>
       <c r="F36">
-        <v>7.160612779063634</v>
+        <v>-1.280216372607037</v>
       </c>
       <c r="G36">
-        <v>-1228.646671455342</v>
+        <v>3.623477518515383</v>
       </c>
       <c r="H36">
-        <v>16.35181705713762</v>
+        <v>16336.30197450737</v>
       </c>
       <c r="I36" t="s">
         <v>8</v>
@@ -1459,16 +1459,16 @@
         <v>1112</v>
       </c>
       <c r="E37">
-        <v>2.076556789213761</v>
+        <v>916.9238501302698</v>
       </c>
       <c r="F37">
-        <v>22.63637924512697</v>
+        <v>1.418178375911533</v>
       </c>
       <c r="G37">
-        <v>-1032.62136815386</v>
+        <v>-2.338576875737777</v>
       </c>
       <c r="H37">
-        <v>15.33496792154883</v>
+        <v>17251.14925738818</v>
       </c>
       <c r="I37" t="s">
         <v>8</v>
@@ -1488,16 +1488,16 @@
         <v>1114</v>
       </c>
       <c r="E38">
-        <v>-0.1323200031937706</v>
+        <v>30.13365751333913</v>
       </c>
       <c r="F38">
-        <v>-5.691953879873322</v>
+        <v>-6.504653418974739</v>
       </c>
       <c r="G38">
-        <v>-10.71673881082709</v>
+        <v>0.04705830724490476</v>
       </c>
       <c r="H38">
-        <v>15.29570376146979</v>
+        <v>17281.41524019347</v>
       </c>
       <c r="I38" t="s">
         <v>8</v>
@@ -1517,16 +1517,16 @@
         <v>1117</v>
       </c>
       <c r="E39">
-        <v>0.5883581028354872</v>
+        <v>46.67657954138122</v>
       </c>
       <c r="F39">
-        <v>-6.757902964762037</v>
+        <v>-4.414407877173214</v>
       </c>
       <c r="G39">
-        <v>-41.78761388083087</v>
+        <v>-0.5267327097768739</v>
       </c>
       <c r="H39">
-        <v>15.71197063450927</v>
+        <v>17327.50345604157</v>
       </c>
       <c r="I39" t="s">
         <v>8</v>
@@ -1546,16 +1546,16 @@
         <v>1217</v>
       </c>
       <c r="E40">
-        <v>4.596115134379941</v>
+        <v>1452.278941769579</v>
       </c>
       <c r="F40">
-        <v>-5.81948625665596</v>
+        <v>3.558546856154219</v>
       </c>
       <c r="G40">
-        <v>687.5774532543862</v>
+        <v>2.176018014218581</v>
       </c>
       <c r="H40">
-        <v>19.36271387960428</v>
+        <v>18775.18629344181</v>
       </c>
       <c r="I40" t="s">
         <v>8</v>
@@ -1575,16 +1575,16 @@
         <v>1234</v>
       </c>
       <c r="E41">
-        <v>-0.8325927790399064</v>
+        <v>340.4292798588431</v>
       </c>
       <c r="F41">
-        <v>-4.566544192934653</v>
+        <v>1.146574443400988</v>
       </c>
       <c r="G41">
-        <v>129.546744778912</v>
+        <v>-0.3168343342728075</v>
       </c>
       <c r="H41">
-        <v>19.16665576024431</v>
+        <v>19116.44816578868</v>
       </c>
       <c r="I41" t="s">
         <v>8</v>
@@ -1604,16 +1604,16 @@
         <v>1235</v>
       </c>
       <c r="E42">
-        <v>-1.765404408583461</v>
+        <v>17.42441686837992</v>
       </c>
       <c r="F42">
         <v>9.997376345115907</v>
       </c>
       <c r="G42">
-        <v>-2.473830175465222</v>
+        <v>0.2506431481089307</v>
       </c>
       <c r="H42">
-        <v>19.18982075930376</v>
+        <v>19135.63798701111</v>
       </c>
       <c r="I42" t="s">
         <v>8</v>
@@ -1633,16 +1633,16 @@
         <v>1236</v>
       </c>
       <c r="E43">
-        <v>-0.2332546770637656</v>
+        <v>17.19116230919826</v>
       </c>
       <c r="F43">
         <v>9.135520449007458</v>
       </c>
       <c r="G43">
-        <v>5.993788631779869</v>
+        <v>-0.08132546284821182</v>
       </c>
       <c r="H43">
-        <v>17.4244163507203</v>
+        <v>19153.06240387949</v>
       </c>
       <c r="I43" t="s">
         <v>8</v>
@@ -1662,16 +1662,16 @@
         <v>1296</v>
       </c>
       <c r="E44">
-        <v>-3.424263970908454</v>
+        <v>919.7985693233386</v>
       </c>
       <c r="F44">
-        <v>8.172887197956671</v>
+        <v>3.212140446956366</v>
       </c>
       <c r="G44">
-        <v>-868.9429677295628</v>
+        <v>3.234936644182395</v>
       </c>
       <c r="H44">
-        <v>14.46511114320911</v>
+        <v>20076.28523730353</v>
       </c>
       <c r="I44" t="s">
         <v>8</v>
@@ -1691,16 +1691,16 @@
         <v>1339</v>
       </c>
       <c r="E45">
-        <v>-1.488257410322072</v>
+        <v>551.9324064875545</v>
       </c>
       <c r="F45">
-        <v>9.771950371256086</v>
+        <v>8.736348125741674</v>
       </c>
       <c r="G45">
-        <v>719.9841379989743</v>
+        <v>-1.941400280353867</v>
       </c>
       <c r="H45">
-        <v>10.94943390078677</v>
+        <v>20629.70590136149</v>
       </c>
       <c r="I45" t="s">
         <v>8</v>
@@ -1720,16 +1720,16 @@
         <v>1351</v>
       </c>
       <c r="E46">
-        <v>8.74946479494189</v>
+        <v>207.6893822174316</v>
       </c>
       <c r="F46">
-        <v>9.969818037081822</v>
+        <v>9.769148550392874</v>
       </c>
       <c r="G46">
-        <v>9.455509096224043</v>
+        <v>0.3983383409993186</v>
       </c>
       <c r="H46">
-        <v>20.78639026757296</v>
+        <v>20828.64581866284</v>
       </c>
       <c r="I46" t="s">
         <v>8</v>
@@ -1749,16 +1749,16 @@
         <v>1409</v>
       </c>
       <c r="E47">
-        <v>-8.09453651309663</v>
+        <v>938.7045830726238</v>
       </c>
       <c r="F47">
-        <v>4.876461395010978</v>
+        <v>3.048267834828779</v>
       </c>
       <c r="G47">
-        <v>276.8907739943856</v>
+        <v>-2.387654775159163</v>
       </c>
       <c r="H47">
-        <v>11.53997743511374</v>
+        <v>21775.44493848191</v>
       </c>
       <c r="I47" t="s">
         <v>8</v>
@@ -1778,16 +1778,16 @@
         <v>1411</v>
       </c>
       <c r="E48">
-        <v>-0.04052214328463144</v>
+        <v>25.27869677441049</v>
       </c>
       <c r="F48">
-        <v>7.672330416109925</v>
+        <v>9.671196658366</v>
       </c>
       <c r="G48">
-        <v>-148.552712094453</v>
+        <v>0.2381323032010778</v>
       </c>
       <c r="H48">
-        <v>12.38564982928397</v>
+        <v>21800.76415735656</v>
       </c>
       <c r="I48" t="s">
         <v>8</v>
@@ -1807,16 +1807,16 @@
         <v>1458</v>
       </c>
       <c r="E49">
-        <v>0.9995917783326416</v>
+        <v>710.8830771958565</v>
       </c>
       <c r="F49">
-        <v>-51.2669374520772</v>
+        <v>6.329466394030306</v>
       </c>
       <c r="G49">
-        <v>-1647.652153844855</v>
+        <v>-2.316807924352409</v>
       </c>
       <c r="H49">
-        <v>14.96171951583107</v>
+        <v>22510.64764287367</v>
       </c>
       <c r="I49" t="s">
         <v>8</v>
@@ -1836,16 +1836,16 @@
         <v>1459</v>
       </c>
       <c r="E50">
-        <v>-0.277328718485025</v>
+        <v>13.61530962919642</v>
       </c>
       <c r="F50">
         <v>8.616249065587811</v>
       </c>
       <c r="G50">
-        <v>-9.445224201837247</v>
+        <v>0.1923887149861216</v>
       </c>
       <c r="H50">
-        <v>13.89263820931927</v>
+        <v>22524.5402812599</v>
       </c>
       <c r="I50" t="s">
         <v>8</v>
@@ -1865,16 +1865,16 @@
         <v>1505</v>
       </c>
       <c r="E51">
-        <v>-2.836973887735589</v>
+        <v>749.5692728737849</v>
       </c>
       <c r="F51">
-        <v>9.76253727119637</v>
+        <v>9.478193265144439</v>
       </c>
       <c r="G51">
-        <v>1135.859265352291</v>
+        <v>-4.299006366139526</v>
       </c>
       <c r="H51">
-        <v>11.16590878806048</v>
+        <v>23276.94652776612</v>
       </c>
       <c r="I51" t="s">
         <v>8</v>
@@ -1894,16 +1894,16 @@
         <v>1535</v>
       </c>
       <c r="E52">
-        <v>4.894459971792685</v>
+        <v>435.5356769315731</v>
       </c>
       <c r="F52">
-        <v>-2.179505105443925</v>
+        <v>6.773746381148227</v>
       </c>
       <c r="G52">
-        <v>175.7034889618893</v>
+        <v>1.974519515110574</v>
       </c>
       <c r="H52">
-        <v>15.55701462439713</v>
+        <v>23707.58774453478</v>
       </c>
       <c r="I52" t="s">
         <v>8</v>
@@ -1923,16 +1923,16 @@
         <v>1628</v>
       </c>
       <c r="E53">
-        <v>-1.251121480669902</v>
+        <v>1558.661065889315</v>
       </c>
       <c r="F53">
-        <v>18.49286961817101</v>
+        <v>9.100209265993705</v>
       </c>
       <c r="G53">
-        <v>5787.930439928152</v>
+        <v>-4.645913252401428</v>
       </c>
       <c r="H53">
-        <v>13.90390820812721</v>
+        <v>25267.49993221965</v>
       </c>
       <c r="I53" t="s">
         <v>8</v>
@@ -1952,16 +1952,16 @@
         <v>1681</v>
       </c>
       <c r="E54">
-        <v>0.3045811035281076</v>
+        <v>755.2700581801146</v>
       </c>
       <c r="F54">
-        <v>23.77134877569618</v>
+        <v>8.803832620215976</v>
       </c>
       <c r="G54">
-        <v>5037.668323207184</v>
+        <v>2.031562830371228</v>
       </c>
       <c r="H54">
-        <v>15.58636364674297</v>
+        <v>26022.46540902198</v>
       </c>
       <c r="I54" t="s">
         <v>8</v>
@@ -1981,16 +1981,16 @@
         <v>1765</v>
       </c>
       <c r="E55">
-        <v>-2.474402864806391</v>
+        <v>1264.899823143351</v>
       </c>
       <c r="F55">
-        <v>-31.68551642075092</v>
+        <v>2.715786035652243</v>
       </c>
       <c r="G55">
-        <v>1383.383143276001</v>
+        <v>-2.706180481819132</v>
       </c>
       <c r="H55">
-        <v>12.69542749835851</v>
+        <v>27289.8396354055</v>
       </c>
       <c r="I55" t="s">
         <v>8</v>
@@ -2010,16 +2010,16 @@
         <v>1766</v>
       </c>
       <c r="E56">
-        <v>0.2233245169761133</v>
+        <v>12.47517702549885</v>
       </c>
       <c r="F56">
         <v>-0.9691183484051571</v>
       </c>
       <c r="G56">
-        <v>10.10936184218021</v>
+        <v>0.1809728507841649</v>
       </c>
       <c r="H56">
-        <v>12.25185233294316</v>
+        <v>27302.09148790724</v>
       </c>
       <c r="I56" t="s">
         <v>8</v>
@@ -2039,16 +2039,16 @@
         <v>1768</v>
       </c>
       <c r="E57">
-        <v>0.5373416504594903</v>
+        <v>25.59575949009377</v>
       </c>
       <c r="F57">
-        <v>-2.117369741418229</v>
+        <v>-1.836499198479489</v>
       </c>
       <c r="G57">
-        <v>-7.960503798117023</v>
+        <v>-0.1671179263512283</v>
       </c>
       <c r="H57">
-        <v>12.58324054531887</v>
+        <v>27327.1499056729</v>
       </c>
       <c r="I57" t="s">
         <v>8</v>
@@ -2068,16 +2068,16 @@
         <v>1769</v>
       </c>
       <c r="E58">
-        <v>-0.3682826401141259</v>
+        <v>12.64423606528362</v>
       </c>
       <c r="F58">
         <v>-1.530310538753543</v>
       </c>
       <c r="G58">
-        <v>-3.420907716767283</v>
+        <v>0.0996391493335807</v>
       </c>
       <c r="H58">
-        <v>13.01251850037876</v>
+        <v>27340.16242442283</v>
       </c>
       <c r="I58" t="s">
         <v>8</v>
@@ -2097,16 +2097,16 @@
         <v>1770</v>
       </c>
       <c r="E59">
-        <v>-0.04710539451066076</v>
+        <v>12.5971306548563</v>
       </c>
       <c r="F59">
         <v>-1.223801256598705</v>
       </c>
       <c r="G59">
-        <v>4.100052963188594</v>
+        <v>-0.01533163524593177</v>
       </c>
       <c r="H59">
-        <v>12.64423586026464</v>
+        <v>27352.80666048811</v>
       </c>
       <c r="I59" t="s">
         <v>8</v>
@@ -2126,16 +2126,16 @@
         <v>1771</v>
       </c>
       <c r="E60">
-        <v>10.61107362839145</v>
+        <v>23.20820445037316</v>
       </c>
       <c r="F60">
         <v>-1.305201694265891</v>
       </c>
       <c r="G60">
-        <v>0.06636457725781614</v>
+        <v>0.03034269269324871</v>
       </c>
       <c r="H60">
-        <v>12.59713046575398</v>
+        <v>27365.40379114297</v>
       </c>
       <c r="I60" t="s">
         <v>8</v>
@@ -2155,16 +2155,16 @@
         <v>1773</v>
       </c>
       <c r="E61">
-        <v>-0.3586209935466762</v>
+        <v>34.456874764448</v>
       </c>
       <c r="F61">
-        <v>-9.348294493201003</v>
+        <v>-1.639802592446514</v>
       </c>
       <c r="G61">
-        <v>8.707547849486657</v>
+        <v>-0.09062660158489143</v>
       </c>
       <c r="H61">
-        <v>11.6072910915576</v>
+        <v>27400.21928688452</v>
       </c>
       <c r="I61" t="s">
         <v>8</v>
@@ -2184,16 +2184,16 @@
         <v>1775</v>
       </c>
       <c r="E62">
-        <v>-1.706868355588227</v>
+        <v>41.78436304307252</v>
       </c>
       <c r="F62">
-        <v>-1.191956566438154</v>
+        <v>-1.095450470097568</v>
       </c>
       <c r="G62">
-        <v>-1.499351130616227</v>
+        <v>0.0612476728704989</v>
       </c>
       <c r="H62">
-        <v>20.64164768957415</v>
+        <v>27443.71051835242</v>
       </c>
       <c r="I62" t="s">
         <v>8</v>
@@ -2213,16 +2213,16 @@
         <v>1776</v>
       </c>
       <c r="E63">
-        <v>0.3347936183505915</v>
+        <v>21.47750869284573</v>
       </c>
       <c r="F63">
         <v>-1.303367942610337</v>
       </c>
       <c r="G63">
-        <v>-4.32537379910901</v>
+        <v>-0.06742437242755824</v>
       </c>
       <c r="H63">
-        <v>21.14271474501053</v>
+        <v>27464.85323340086</v>
       </c>
       <c r="I63" t="s">
         <v>8</v>
@@ -2242,16 +2242,16 @@
         <v>1788</v>
       </c>
       <c r="E64">
-        <v>-1.649321668660825</v>
+        <v>219.7798828132327</v>
       </c>
       <c r="F64">
-        <v>3.007134671997677</v>
+        <v>-2.996890153055212</v>
       </c>
       <c r="G64">
-        <v>-48.15853250239581</v>
+        <v>0.3614021000029659</v>
       </c>
       <c r="H64">
-        <v>17.84028691421195</v>
+        <v>27686.28243759581</v>
       </c>
       <c r="I64" t="s">
         <v>8</v>
@@ -2271,16 +2271,16 @@
         <v>1826</v>
       </c>
       <c r="E65">
-        <v>-1.169778272068555</v>
+        <v>570.7407078778269</v>
       </c>
       <c r="F65">
-        <v>-6.753891373792328</v>
+        <v>-4.047118092241034</v>
       </c>
       <c r="G65">
-        <v>1375.579424578331</v>
+        <v>-2.819358949109247</v>
       </c>
       <c r="H65">
-        <v>19.25426396336443</v>
+        <v>28258.19292426085</v>
       </c>
       <c r="I65" t="s">
         <v>8</v>
@@ -2300,16 +2300,16 @@
         <v>1926</v>
       </c>
       <c r="E66">
-        <v>-0.411939023262665</v>
+        <v>1701.564347687097</v>
       </c>
       <c r="F66">
-        <v>6.110348432217397</v>
+        <v>1.224496329143648</v>
       </c>
       <c r="G66">
-        <v>-4926.479361909178</v>
+        <v>1.192672554068895</v>
       </c>
       <c r="H66">
-        <v>18.90893112604495</v>
+        <v>29960.16921044251</v>
       </c>
       <c r="I66" t="s">
         <v>8</v>
@@ -2329,16 +2329,16 @@
         <v>2002</v>
       </c>
       <c r="E67">
-        <v>0.3497773895153884</v>
+        <v>1238.094529523736</v>
       </c>
       <c r="F67">
-        <v>209.8977441395153</v>
+        <v>0.5497540025124052</v>
       </c>
       <c r="G67">
-        <v>-8076.337317961543</v>
+        <v>-2.281667608214841</v>
       </c>
       <c r="H67">
-        <v>22.56578796395638</v>
+        <v>31197.91396268688</v>
       </c>
       <c r="I67" t="s">
         <v>8</v>
@@ -2358,16 +2358,16 @@
         <v>2102</v>
       </c>
       <c r="E68">
-        <v>-4.159980317070385</v>
+        <v>1478.37646889903</v>
       </c>
       <c r="F68">
-        <v>-13.43008700421758</v>
+        <v>1.309943888990366</v>
       </c>
       <c r="G68">
-        <v>-1248.773437683426</v>
+        <v>3.513903955135374</v>
       </c>
       <c r="H68">
-        <v>14.62430867907974</v>
+        <v>32680.45041225256</v>
       </c>
       <c r="I68" t="s">
         <v>8</v>
@@ -2387,16 +2387,16 @@
         <v>2121</v>
       </c>
       <c r="E69">
-        <v>4.970252993781209</v>
+        <v>292.6010743627921</v>
       </c>
       <c r="F69">
-        <v>-0.376034011239599</v>
+        <v>-4.295350749098601</v>
       </c>
       <c r="G69">
-        <v>-55.05184862439603</v>
+        <v>-0.9351353751330883</v>
       </c>
       <c r="H69">
-        <v>18.3010804281196</v>
+        <v>32968.08123353563</v>
       </c>
       <c r="I69" t="s">
         <v>8</v>
@@ -2416,16 +2416,16 @@
         <v>2122</v>
       </c>
       <c r="E70">
-        <v>0.9625150886453291</v>
+        <v>20.36903480348701</v>
       </c>
       <c r="F70">
         <v>-0.4008727633516296</v>
       </c>
       <c r="G70">
-        <v>1.870554734377695</v>
+        <v>0.08839089202534364</v>
       </c>
       <c r="H70">
-        <v>19.40651946559528</v>
+        <v>32987.48775325742</v>
       </c>
       <c r="I70" t="s">
         <v>8</v>
@@ -2445,16 +2445,16 @@
         <v>2123</v>
       </c>
       <c r="E71">
-        <v>-1.715367824891434</v>
+        <v>18.65366707263456</v>
       </c>
       <c r="F71">
         <v>-2.043470506630904</v>
       </c>
       <c r="G71">
-        <v>4.294913249561102</v>
+        <v>-0.3949548349024165</v>
       </c>
       <c r="H71">
-        <v>20.36903455424061</v>
+        <v>33007.85678806091</v>
       </c>
       <c r="I71" t="s">
         <v>8</v>
@@ -2474,16 +2474,16 @@
         <v>2198</v>
       </c>
       <c r="E72">
-        <v>-0.07286202800488795</v>
+        <v>1192.852900399776</v>
       </c>
       <c r="F72">
-        <v>-958.6164423669555</v>
+        <v>-1.802040962007777</v>
       </c>
       <c r="G72">
-        <v>-50237.59160788261</v>
+        <v>3.068620452199015</v>
       </c>
       <c r="H72">
-        <v>19.35960257207735</v>
+        <v>34200.78255050487</v>
       </c>
       <c r="I72" t="s">
         <v>8</v>
@@ -2503,16 +2503,16 @@
         <v>2200</v>
       </c>
       <c r="E73">
-        <v>2.319238508083668</v>
+        <v>39.58186892988306</v>
       </c>
       <c r="F73">
-        <v>-1.04750074824079</v>
+        <v>-1.742113006776057</v>
       </c>
       <c r="G73">
-        <v>-1.63079342814885</v>
+        <v>-0.09555382349409856</v>
       </c>
       <c r="H73">
-        <v>18.68182503438512</v>
+        <v>34238.04518095243</v>
       </c>
       <c r="I73" t="s">
         <v>8</v>
@@ -2532,16 +2532,16 @@
         <v>2205</v>
       </c>
       <c r="E74">
-        <v>-2.12805333917137</v>
+        <v>89.59064185099123</v>
       </c>
       <c r="F74">
-        <v>-5.22648190405673</v>
+        <v>-1.56225071611269</v>
       </c>
       <c r="G74">
-        <v>-12.11773080957479</v>
+        <v>0.2878333828145256</v>
       </c>
       <c r="H74">
-        <v>17.18234111875788</v>
+        <v>34329.76387617397</v>
       </c>
       <c r="I74" t="s">
         <v>8</v>
@@ -2561,16 +2561,16 @@
         <v>2212</v>
       </c>
       <c r="E75">
-        <v>-2.041133125261581</v>
+        <v>113.1510649064658</v>
       </c>
       <c r="F75">
-        <v>-6.689390702427523</v>
+        <v>-3.364038488402069</v>
       </c>
       <c r="G75">
-        <v>24.95368578342964</v>
+        <v>-0.4501397728075357</v>
       </c>
       <c r="H75">
-        <v>17.09037434331255</v>
+        <v>34444.95607409305</v>
       </c>
       <c r="I75" t="s">
         <v>8</v>
@@ -2590,16 +2590,16 @@
         <v>2214</v>
       </c>
       <c r="E76">
-        <v>2.107507278982624</v>
+        <v>35.79399999910675</v>
       </c>
       <c r="F76">
-        <v>-2.649057057001902</v>
+        <v>-2.850329613276325</v>
       </c>
       <c r="G76">
-        <v>0.4126022117066402</v>
+        <v>0.02429351747549238</v>
       </c>
       <c r="H76">
-        <v>16.95563520286758</v>
+        <v>34478.64256680803</v>
       </c>
       <c r="I76" t="s">
         <v>8</v>
@@ -2619,16 +2619,16 @@
         <v>2222</v>
       </c>
       <c r="E77">
-        <v>-6.389052345167114</v>
+        <v>122.4589308720097</v>
       </c>
       <c r="F77">
-        <v>-6.665157632970677</v>
+        <v>-4.546921201111702</v>
       </c>
       <c r="G77">
-        <v>13.05868099482806</v>
+        <v>-0.6813108349116376</v>
       </c>
       <c r="H77">
-        <v>11.66029434889967</v>
+        <v>34607.49054998222</v>
       </c>
       <c r="I77" t="s">
         <v>8</v>
@@ -2648,16 +2648,16 @@
         <v>2287</v>
       </c>
       <c r="E78">
-        <v>9.027555069774232</v>
+        <v>960.2820784139185</v>
       </c>
       <c r="F78">
-        <v>2.657371697065947</v>
+        <v>-0.7150572444261751</v>
       </c>
       <c r="G78">
-        <v>346.6676166537136</v>
+        <v>3.259001777288007</v>
       </c>
       <c r="H78">
-        <v>17.04544682844292</v>
+        <v>35558.74507355536</v>
       </c>
       <c r="I78" t="s">
         <v>8</v>
@@ -2677,16 +2677,16 @@
         <v>2291</v>
       </c>
       <c r="E79">
-        <v>-4.091863481805937</v>
+        <v>74.4020240477912</v>
       </c>
       <c r="F79">
-        <v>0.02231972577384008</v>
+        <v>0.5490306867231698</v>
       </c>
       <c r="G79">
-        <v>3.486009081166617</v>
+        <v>-0.191718887208056</v>
       </c>
       <c r="H79">
-        <v>18.27636398966537</v>
+        <v>35637.23896109535</v>
       </c>
       <c r="I79" t="s">
         <v>8</v>
@@ -2706,16 +2706,16 @@
         <v>2292</v>
       </c>
       <c r="E80">
-        <v>4.271123423665294</v>
+        <v>21.65612692477589</v>
       </c>
       <c r="F80">
         <v>0.02587660591580461</v>
       </c>
       <c r="G80">
-        <v>1.677010109951895</v>
+        <v>0.330747838116172</v>
       </c>
       <c r="H80">
-        <v>17.38500326677881</v>
+        <v>35654.62396455349</v>
       </c>
       <c r="I80" t="s">
         <v>8</v>
@@ -2735,16 +2735,16 @@
         <v>2297</v>
       </c>
       <c r="E81">
-        <v>-11.04105626395829</v>
+        <v>75.08637616922351</v>
       </c>
       <c r="F81">
-        <v>-5.814800966230919</v>
+        <v>-4.258154043925821</v>
       </c>
       <c r="G81">
-        <v>1.072395510671638</v>
+        <v>-0.1576901133683288</v>
       </c>
       <c r="H81">
-        <v>11.19802554927925</v>
+        <v>35740.75139684616</v>
       </c>
       <c r="I81" t="s">
         <v>8</v>
@@ -2764,16 +2764,16 @@
         <v>2437</v>
       </c>
       <c r="E82">
-        <v>8.081688620863156</v>
+        <v>2427.044252905944</v>
       </c>
       <c r="F82">
-        <v>-3.874998878074459</v>
+        <v>0.7481270099782461</v>
       </c>
       <c r="G82">
-        <v>633.2227450858559</v>
+        <v>2.10853553547893</v>
       </c>
       <c r="H82">
-        <v>17.82533691932202</v>
+        <v>38159.7139588481</v>
       </c>
       <c r="I82" t="s">
         <v>8</v>
@@ -2793,16 +2793,16 @@
         <v>2632</v>
       </c>
       <c r="E83">
-        <v>-2.65281929406094</v>
+        <v>3454.663685947395</v>
       </c>
       <c r="F83">
-        <v>-7.21059771920144</v>
+        <v>3.065985608365474</v>
       </c>
       <c r="G83">
-        <v>3274.792826073011</v>
+        <v>-2.514697343303455</v>
       </c>
       <c r="H83">
-        <v>16.71278035471219</v>
+        <v>41617.03046649948</v>
       </c>
       <c r="I83" t="s">
         <v>8</v>
@@ -2822,16 +2822,16 @@
         <v>2663</v>
       </c>
       <c r="E84">
-        <v>0.644061654593127</v>
+        <v>490.2055269807897</v>
       </c>
       <c r="F84">
-        <v>-21.00553782087368</v>
+        <v>-2.419328873481414</v>
       </c>
       <c r="G84">
-        <v>1479.794619682981</v>
+        <v>1.944243625895261</v>
       </c>
       <c r="H84">
-        <v>15.46003949377488</v>
+        <v>42106.59193145261</v>
       </c>
       <c r="I84" t="s">
         <v>8</v>
@@ -2851,16 +2851,16 @@
         <v>2695</v>
       </c>
       <c r="E85">
-        <v>-5.687023243149396</v>
+        <v>527.239657418635</v>
       </c>
       <c r="F85">
-        <v>-0.4735554996514312</v>
+        <v>-5.772312393461049</v>
       </c>
       <c r="G85">
-        <v>124.2397311055415</v>
+        <v>-1.340100708621075</v>
       </c>
       <c r="H85">
-        <v>10.21706090558179</v>
+        <v>42624.02833289102</v>
       </c>
       <c r="I85" t="s">
         <v>8</v>

--- a/Entrenamientos/Procesado_Tramos_simulacion.xlsx
+++ b/Entrenamientos/Procesado_Tramos_simulacion.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="12">
   <si>
     <t>tramo</t>
   </si>
@@ -25,7 +25,16 @@
     <t>tramo_final</t>
   </si>
   <si>
+    <t>pwr</t>
+  </si>
+  <si>
+    <t>time_seg</t>
+  </si>
+  <si>
     <t>dist</t>
+  </si>
+  <si>
+    <t>spd</t>
   </si>
   <si>
     <t>viento_aparente</t>
@@ -398,13 +407,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I85"/>
+  <dimension ref="A1:L85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -429,8 +438,17 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -444,22 +462,31 @@
         <v>25</v>
       </c>
       <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
         <v>344.0415503671599</v>
       </c>
-      <c r="F2">
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
         <v>3.492272793926644</v>
       </c>
-      <c r="G2">
+      <c r="J2">
         <v>1.596116034322399</v>
       </c>
-      <c r="H2">
+      <c r="K2">
         <v>329.5441984407484</v>
       </c>
-      <c r="I2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="L2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -473,22 +500,31 @@
         <v>26</v>
       </c>
       <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
         <v>13.56729663011254</v>
       </c>
-      <c r="F3">
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
         <v>1.57454844203958</v>
       </c>
-      <c r="G3">
+      <c r="J3">
         <v>-0.2188322408916709</v>
       </c>
-      <c r="H3">
+      <c r="K3">
         <v>344.0415503671599</v>
       </c>
-      <c r="I3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="L3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -502,22 +538,31 @@
         <v>37</v>
       </c>
       <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
         <v>168.9935131340457</v>
       </c>
-      <c r="F4">
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
         <v>1.731397461341183</v>
       </c>
-      <c r="G4">
+      <c r="J4">
         <v>0.3711593507547151</v>
       </c>
-      <c r="H4">
+      <c r="K4">
         <v>509.9854940876567</v>
       </c>
-      <c r="I4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="L4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -531,22 +576,31 @@
         <v>38</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
         <v>17.33180625774378</v>
       </c>
-      <c r="F5">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
         <v>1.57520843538257</v>
       </c>
-      <c r="G5">
+      <c r="J5">
         <v>-0.0675955599860016</v>
       </c>
-      <c r="H5">
+      <c r="K5">
         <v>526.6023601313181</v>
       </c>
-      <c r="I5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="L5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -560,22 +614,31 @@
         <v>41</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
         <v>48.49833201473393</v>
       </c>
-      <c r="F6">
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
         <v>3.40763809526817</v>
       </c>
-      <c r="G6">
+      <c r="J6">
         <v>0.07414374889212304</v>
       </c>
-      <c r="H6">
+      <c r="K6">
         <v>579.2601818838048</v>
       </c>
-      <c r="I6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="L6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -589,22 +652,31 @@
         <v>42</v>
       </c>
       <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
         <v>15.03489657772798</v>
       </c>
-      <c r="F7">
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
         <v>2.835582102804634</v>
       </c>
-      <c r="G7">
+      <c r="J7">
         <v>-0.01674270518462065</v>
       </c>
-      <c r="H7">
+      <c r="K7">
         <v>592.4324984037958</v>
       </c>
-      <c r="I7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="L7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -618,22 +690,31 @@
         <v>46</v>
       </c>
       <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
         <v>55.21180257348544</v>
       </c>
-      <c r="F8">
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
         <v>4.760357197651417</v>
       </c>
-      <c r="G8">
+      <c r="J8">
         <v>0.2477469273428186</v>
       </c>
-      <c r="H8">
+      <c r="K8">
         <v>650.3147855965394</v>
       </c>
-      <c r="I8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="L8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -647,22 +728,31 @@
         <v>80</v>
       </c>
       <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
         <v>560.0692098765884</v>
       </c>
-      <c r="F9">
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
         <v>3.98256430003651</v>
       </c>
-      <c r="G9">
+      <c r="J9">
         <v>-2.435372970096637</v>
       </c>
-      <c r="H9">
+      <c r="K9">
         <v>1210.400021248792</v>
       </c>
-      <c r="I9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="L9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -676,22 +766,31 @@
         <v>161</v>
       </c>
       <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
         <v>1382.447533600548</v>
       </c>
-      <c r="F10">
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
         <v>-3.902847856084686</v>
       </c>
-      <c r="G10">
+      <c r="J10">
         <v>2.353631628237696</v>
       </c>
-      <c r="H10">
+      <c r="K10">
         <v>2586.014462618665</v>
       </c>
-      <c r="I10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="L10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -705,22 +804,31 @@
         <v>171</v>
       </c>
       <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
         <v>199.1265320145867</v>
       </c>
-      <c r="F11">
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
         <v>-3.39453113286161</v>
       </c>
-      <c r="G11">
+      <c r="J11">
         <v>-0.1659918344285073</v>
       </c>
-      <c r="H11">
+      <c r="K11">
         <v>2781.580798979671</v>
       </c>
-      <c r="I11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="L11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -734,22 +842,31 @@
         <v>176</v>
       </c>
       <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
         <v>91.86067101041317</v>
       </c>
-      <c r="F12">
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
         <v>-2.756201684925812</v>
       </c>
-      <c r="G12">
+      <c r="J12">
         <v>0.2482922711943954</v>
       </c>
-      <c r="H12">
+      <c r="K12">
         <v>2879.396820060103</v>
       </c>
-      <c r="I12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="L12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -763,22 +880,31 @@
         <v>177</v>
       </c>
       <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
         <v>13.58046852523921</v>
       </c>
-      <c r="F13">
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
         <v>-0.6139341684454964</v>
       </c>
-      <c r="G13">
+      <c r="J13">
         <v>-0.2461488251019247</v>
       </c>
-      <c r="H13">
+      <c r="K13">
         <v>2896.183144057145</v>
       </c>
-      <c r="I13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+      <c r="L13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -792,22 +918,31 @@
         <v>286</v>
       </c>
       <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
         <v>1755.103346009126</v>
       </c>
-      <c r="F14">
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
         <v>-2.486692203613646</v>
       </c>
-      <c r="G14">
+      <c r="J14">
         <v>3.32023723483058</v>
       </c>
-      <c r="H14">
+      <c r="K14">
         <v>4647.444385105156</v>
       </c>
-      <c r="I14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="L14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -821,22 +956,31 @@
         <v>287</v>
       </c>
       <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
         <v>26.87268222576495</v>
       </c>
-      <c r="F15">
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
         <v>-4.904003908876237</v>
       </c>
-      <c r="G15">
+      <c r="J15">
         <v>-0.05742926703369799</v>
       </c>
-      <c r="H15">
+      <c r="K15">
         <v>4664.86695859151</v>
       </c>
-      <c r="I15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="L15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -850,22 +994,31 @@
         <v>288</v>
       </c>
       <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
         <v>18.32142955760628</v>
       </c>
-      <c r="F16">
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
         <v>-5.685938728369462</v>
       </c>
-      <c r="G16">
+      <c r="J16">
         <v>0.1052479458827658</v>
       </c>
-      <c r="H16">
+      <c r="K16">
         <v>4691.739640817275</v>
       </c>
-      <c r="I16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="L16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -879,22 +1032,31 @@
         <v>334</v>
       </c>
       <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
         <v>778.6626264767738</v>
       </c>
-      <c r="F17">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
         <v>-5.184267536920604</v>
       </c>
-      <c r="G17">
+      <c r="J17">
         <v>-2.347143802750921</v>
       </c>
-      <c r="H17">
+      <c r="K17">
         <v>5473.529010935451</v>
       </c>
-      <c r="I17" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="L17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -908,22 +1070,31 @@
         <v>342</v>
       </c>
       <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
         <v>118.2246671331604</v>
       </c>
-      <c r="F18">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
         <v>-1.272944327177375</v>
       </c>
-      <c r="G18">
+      <c r="J18">
         <v>0.4746819056162278</v>
       </c>
-      <c r="H18">
+      <c r="K18">
         <v>5593.412732648906</v>
       </c>
-      <c r="I18" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="L18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -937,22 +1108,31 @@
         <v>522</v>
       </c>
       <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
         <v>2858.371279980439</v>
       </c>
-      <c r="F19">
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
         <v>-4.949172023586057</v>
       </c>
-      <c r="G19">
+      <c r="J19">
         <v>-2.290160995983005</v>
       </c>
-      <c r="H19">
+      <c r="K19">
         <v>8447.305038246473</v>
       </c>
-      <c r="I19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="L19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -966,22 +1146,31 @@
         <v>527</v>
       </c>
       <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
         <v>102.3123986075007</v>
       </c>
-      <c r="F20">
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
         <v>-9.70486363213517</v>
       </c>
-      <c r="G20">
+      <c r="J20">
         <v>0.3209526194120306</v>
       </c>
-      <c r="H20">
+      <c r="K20">
         <v>8547.811624893384</v>
       </c>
-      <c r="I20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="L20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -995,22 +1184,31 @@
         <v>529</v>
       </c>
       <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
         <v>30.59651750363264</v>
       </c>
-      <c r="F21">
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
         <v>-9.861219867994032</v>
       </c>
-      <c r="G21">
+      <c r="J21">
         <v>-0.1654132108420091</v>
       </c>
-      <c r="H21">
+      <c r="K21">
         <v>8578.773641919104</v>
       </c>
-      <c r="I21" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+      <c r="L21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1024,22 +1222,31 @@
         <v>530</v>
       </c>
       <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
         <v>24.03705720769904</v>
       </c>
-      <c r="F22">
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
         <v>-9.279345091961993</v>
       </c>
-      <c r="G22">
+      <c r="J22">
         <v>0.01819589233524954</v>
       </c>
-      <c r="H22">
+      <c r="K22">
         <v>8598.228560076388</v>
       </c>
-      <c r="I22" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+      <c r="L22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1053,22 +1260,31 @@
         <v>636</v>
       </c>
       <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
         <v>1513.274544561578</v>
       </c>
-      <c r="F23">
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
         <v>-9.238281327998019</v>
       </c>
-      <c r="G23">
+      <c r="J23">
         <v>-2.377273894165573</v>
       </c>
-      <c r="H23">
+      <c r="K23">
         <v>10124.07313860971</v>
       </c>
-      <c r="I23" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+      <c r="L23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1082,22 +1298,31 @@
         <v>638</v>
       </c>
       <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
         <v>24.54097426583394</v>
       </c>
-      <c r="F24">
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
         <v>-9.954147471937697</v>
       </c>
-      <c r="G24">
+      <c r="J24">
         <v>0.5579098389375479</v>
       </c>
-      <c r="H24">
+      <c r="K24">
         <v>10147.42137152125</v>
       </c>
-      <c r="I24" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+      <c r="L24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1111,22 +1336,31 @@
         <v>651</v>
       </c>
       <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
         <v>229.7816471182123</v>
       </c>
-      <c r="F25">
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
         <v>-9.022411740833657</v>
       </c>
-      <c r="G25">
+      <c r="J25">
         <v>-0.2558670563346051</v>
       </c>
-      <c r="H25">
+      <c r="K25">
         <v>10370.7586377494</v>
       </c>
-      <c r="I25" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+      <c r="L25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1140,22 +1374,31 @@
         <v>745</v>
       </c>
       <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
         <v>1322.770446273986</v>
       </c>
-      <c r="F26">
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
         <v>-8.465904839481219</v>
       </c>
-      <c r="G26">
+      <c r="J26">
         <v>4.950156921523133</v>
       </c>
-      <c r="H26">
+      <c r="K26">
         <v>11699.76420950433</v>
       </c>
-      <c r="I26" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+      <c r="L26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1169,22 +1412,31 @@
         <v>808</v>
       </c>
       <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
         <v>879.3661789674698</v>
       </c>
-      <c r="F27">
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
         <v>-9.450384387180872</v>
       </c>
-      <c r="G27">
+      <c r="J27">
         <v>-2.562822532464561</v>
       </c>
-      <c r="H27">
+      <c r="K27">
         <v>12580.27530196573</v>
       </c>
-      <c r="I27" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+      <c r="L27" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1198,22 +1450,31 @@
         <v>810</v>
       </c>
       <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
         <v>23.27719826512475</v>
       </c>
-      <c r="F28">
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
         <v>-9.945059851748946</v>
       </c>
-      <c r="G28">
+      <c r="J28">
         <v>0.09280815982713665</v>
       </c>
-      <c r="H28">
+      <c r="K28">
         <v>12603.51639240188</v>
       </c>
-      <c r="I28" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+      <c r="L28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1227,22 +1488,31 @@
         <v>811</v>
       </c>
       <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
         <v>12.15827774819991</v>
       </c>
-      <c r="F29">
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
         <v>-9.385389381431935</v>
       </c>
-      <c r="G29">
+      <c r="J29">
         <v>-0.1034063002761221</v>
       </c>
-      <c r="H29">
+      <c r="K29">
         <v>12615.27660673629</v>
       </c>
-      <c r="I29" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+      <c r="L29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1256,22 +1526,31 @@
         <v>813</v>
       </c>
       <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
         <v>40.33251286838276</v>
       </c>
-      <c r="F30">
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
         <v>-6.42479720367449</v>
       </c>
-      <c r="G30">
+      <c r="J30">
         <v>0.141437395741504</v>
       </c>
-      <c r="H30">
+      <c r="K30">
         <v>12641.74725379177</v>
       </c>
-      <c r="I30" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+      <c r="L30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1285,22 +1564,31 @@
         <v>851</v>
       </c>
       <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
         <v>561.0455563968753</v>
       </c>
-      <c r="F31">
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
         <v>4.029840037148754</v>
       </c>
-      <c r="G31">
+      <c r="J31">
         <v>-3.228726121143762</v>
       </c>
-      <c r="H31">
+      <c r="K31">
         <v>13217.06534632142</v>
       </c>
-      <c r="I31" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+      <c r="L31" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1314,22 +1602,31 @@
         <v>858</v>
       </c>
       <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
         <v>104.9411033259221</v>
       </c>
-      <c r="F32">
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
         <v>7.35038777279619</v>
       </c>
-      <c r="G32">
+      <c r="J32">
         <v>0.5587509355297379</v>
       </c>
-      <c r="H32">
+      <c r="K32">
         <v>13320.0661170089</v>
       </c>
-      <c r="I32" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+      <c r="L32" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1343,22 +1640,31 @@
         <v>884</v>
       </c>
       <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
         <v>442.239946164329</v>
       </c>
-      <c r="F33">
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
         <v>-2.995590014584259</v>
       </c>
-      <c r="G33">
+      <c r="J33">
         <v>-2.31687999893804</v>
       </c>
-      <c r="H33">
+      <c r="K33">
         <v>13762.24584909531</v>
       </c>
-      <c r="I33" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+      <c r="L33" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1372,22 +1678,31 @@
         <v>940</v>
       </c>
       <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
         <v>803.8684356637259</v>
       </c>
-      <c r="F34">
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
         <v>1.64528195886503</v>
       </c>
-      <c r="G34">
+      <c r="J34">
         <v>3.67386674782785</v>
       </c>
-      <c r="H34">
+      <c r="K34">
         <v>14565.68407707633</v>
       </c>
-      <c r="I34" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+      <c r="L34" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1401,22 +1716,31 @@
         <v>954</v>
       </c>
       <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
         <v>225.0946341554045</v>
       </c>
-      <c r="F35">
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
         <v>0.03624061437360713</v>
       </c>
-      <c r="G35">
+      <c r="J35">
         <v>-1.214580773440048</v>
       </c>
-      <c r="H35">
+      <c r="K35">
         <v>14787.5091602212</v>
       </c>
-      <c r="I35" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+      <c r="L35" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1430,22 +1754,31 @@
         <v>1053</v>
       </c>
       <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
         <v>1544.238605138566</v>
       </c>
-      <c r="F36">
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
         <v>-1.280216372607037</v>
       </c>
-      <c r="G36">
+      <c r="J36">
         <v>3.623477518515383</v>
       </c>
-      <c r="H36">
+      <c r="K36">
         <v>16336.30197450737</v>
       </c>
-      <c r="I36" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+      <c r="L36" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1459,22 +1792,31 @@
         <v>1112</v>
       </c>
       <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
         <v>916.9238501302698</v>
       </c>
-      <c r="F37">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
         <v>1.418178375911533</v>
       </c>
-      <c r="G37">
+      <c r="J37">
         <v>-2.338576875737777</v>
       </c>
-      <c r="H37">
+      <c r="K37">
         <v>17251.14925738818</v>
       </c>
-      <c r="I37" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+      <c r="L37" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1488,22 +1830,31 @@
         <v>1114</v>
       </c>
       <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
         <v>30.13365751333913</v>
       </c>
-      <c r="F38">
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
         <v>-6.504653418974739</v>
       </c>
-      <c r="G38">
+      <c r="J38">
         <v>0.04705830724490476</v>
       </c>
-      <c r="H38">
+      <c r="K38">
         <v>17281.41524019347</v>
       </c>
-      <c r="I38" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+      <c r="L38" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1517,22 +1868,31 @@
         <v>1117</v>
       </c>
       <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
         <v>46.67657954138122</v>
       </c>
-      <c r="F39">
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
         <v>-4.414407877173214</v>
       </c>
-      <c r="G39">
+      <c r="J39">
         <v>-0.5267327097768739</v>
       </c>
-      <c r="H39">
+      <c r="K39">
         <v>17327.50345604157</v>
       </c>
-      <c r="I39" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+      <c r="L39" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -1546,22 +1906,31 @@
         <v>1217</v>
       </c>
       <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
         <v>1452.278941769579</v>
       </c>
-      <c r="F40">
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
         <v>3.558546856154219</v>
       </c>
-      <c r="G40">
+      <c r="J40">
         <v>2.176018014218581</v>
       </c>
-      <c r="H40">
+      <c r="K40">
         <v>18775.18629344181</v>
       </c>
-      <c r="I40" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+      <c r="L40" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -1575,22 +1944,31 @@
         <v>1234</v>
       </c>
       <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
         <v>340.4292798588431</v>
       </c>
-      <c r="F41">
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
         <v>1.146574443400988</v>
       </c>
-      <c r="G41">
+      <c r="J41">
         <v>-0.3168343342728075</v>
       </c>
-      <c r="H41">
+      <c r="K41">
         <v>19116.44816578868</v>
       </c>
-      <c r="I41" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+      <c r="L41" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -1604,22 +1982,31 @@
         <v>1235</v>
       </c>
       <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
         <v>17.42441686837992</v>
       </c>
-      <c r="F42">
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
         <v>9.997376345115907</v>
       </c>
-      <c r="G42">
+      <c r="J42">
         <v>0.2506431481089307</v>
       </c>
-      <c r="H42">
+      <c r="K42">
         <v>19135.63798701111</v>
       </c>
-      <c r="I42" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+      <c r="L42" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -1633,22 +2020,31 @@
         <v>1236</v>
       </c>
       <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
         <v>17.19116230919826</v>
       </c>
-      <c r="F43">
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
         <v>9.135520449007458</v>
       </c>
-      <c r="G43">
+      <c r="J43">
         <v>-0.08132546284821182</v>
       </c>
-      <c r="H43">
+      <c r="K43">
         <v>19153.06240387949</v>
       </c>
-      <c r="I43" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+      <c r="L43" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -1662,22 +2058,31 @@
         <v>1296</v>
       </c>
       <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
         <v>919.7985693233386</v>
       </c>
-      <c r="F44">
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
         <v>3.212140446956366</v>
       </c>
-      <c r="G44">
+      <c r="J44">
         <v>3.234936644182395</v>
       </c>
-      <c r="H44">
+      <c r="K44">
         <v>20076.28523730353</v>
       </c>
-      <c r="I44" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+      <c r="L44" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -1691,22 +2096,31 @@
         <v>1339</v>
       </c>
       <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
         <v>551.9324064875545</v>
       </c>
-      <c r="F45">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
         <v>8.736348125741674</v>
       </c>
-      <c r="G45">
+      <c r="J45">
         <v>-1.941400280353867</v>
       </c>
-      <c r="H45">
+      <c r="K45">
         <v>20629.70590136149</v>
       </c>
-      <c r="I45" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+      <c r="L45" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -1720,22 +2134,31 @@
         <v>1351</v>
       </c>
       <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
         <v>207.6893822174316</v>
       </c>
-      <c r="F46">
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
         <v>9.769148550392874</v>
       </c>
-      <c r="G46">
+      <c r="J46">
         <v>0.3983383409993186</v>
       </c>
-      <c r="H46">
+      <c r="K46">
         <v>20828.64581866284</v>
       </c>
-      <c r="I46" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+      <c r="L46" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -1749,22 +2172,31 @@
         <v>1409</v>
       </c>
       <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
         <v>938.7045830726238</v>
       </c>
-      <c r="F47">
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
         <v>3.048267834828779</v>
       </c>
-      <c r="G47">
+      <c r="J47">
         <v>-2.387654775159163</v>
       </c>
-      <c r="H47">
+      <c r="K47">
         <v>21775.44493848191</v>
       </c>
-      <c r="I47" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+      <c r="L47" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -1778,22 +2210,31 @@
         <v>1411</v>
       </c>
       <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
         <v>25.27869677441049</v>
       </c>
-      <c r="F48">
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
         <v>9.671196658366</v>
       </c>
-      <c r="G48">
+      <c r="J48">
         <v>0.2381323032010778</v>
       </c>
-      <c r="H48">
+      <c r="K48">
         <v>21800.76415735656</v>
       </c>
-      <c r="I48" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+      <c r="L48" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -1807,22 +2248,31 @@
         <v>1458</v>
       </c>
       <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
         <v>710.8830771958565</v>
       </c>
-      <c r="F49">
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
         <v>6.329466394030306</v>
       </c>
-      <c r="G49">
+      <c r="J49">
         <v>-2.316807924352409</v>
       </c>
-      <c r="H49">
+      <c r="K49">
         <v>22510.64764287367</v>
       </c>
-      <c r="I49" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+      <c r="L49" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -1836,22 +2286,31 @@
         <v>1459</v>
       </c>
       <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
         <v>13.61530962919642</v>
       </c>
-      <c r="F50">
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
         <v>8.616249065587811</v>
       </c>
-      <c r="G50">
+      <c r="J50">
         <v>0.1923887149861216</v>
       </c>
-      <c r="H50">
+      <c r="K50">
         <v>22524.5402812599</v>
       </c>
-      <c r="I50" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+      <c r="L50" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -1865,22 +2324,31 @@
         <v>1505</v>
       </c>
       <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
         <v>749.5692728737849</v>
       </c>
-      <c r="F51">
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
         <v>9.478193265144439</v>
       </c>
-      <c r="G51">
+      <c r="J51">
         <v>-4.299006366139526</v>
       </c>
-      <c r="H51">
+      <c r="K51">
         <v>23276.94652776612</v>
       </c>
-      <c r="I51" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+      <c r="L51" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -1894,22 +2362,31 @@
         <v>1535</v>
       </c>
       <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
         <v>435.5356769315731</v>
       </c>
-      <c r="F52">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
         <v>6.773746381148227</v>
       </c>
-      <c r="G52">
+      <c r="J52">
         <v>1.974519515110574</v>
       </c>
-      <c r="H52">
+      <c r="K52">
         <v>23707.58774453478</v>
       </c>
-      <c r="I52" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+      <c r="L52" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -1923,22 +2400,31 @@
         <v>1628</v>
       </c>
       <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
         <v>1558.661065889315</v>
       </c>
-      <c r="F53">
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
         <v>9.100209265993705</v>
       </c>
-      <c r="G53">
+      <c r="J53">
         <v>-4.645913252401428</v>
       </c>
-      <c r="H53">
+      <c r="K53">
         <v>25267.49993221965</v>
       </c>
-      <c r="I53" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+      <c r="L53" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -1952,22 +2438,31 @@
         <v>1681</v>
       </c>
       <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
         <v>755.2700581801146</v>
       </c>
-      <c r="F54">
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
         <v>8.803832620215976</v>
       </c>
-      <c r="G54">
+      <c r="J54">
         <v>2.031562830371228</v>
       </c>
-      <c r="H54">
+      <c r="K54">
         <v>26022.46540902198</v>
       </c>
-      <c r="I54" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+      <c r="L54" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -1981,22 +2476,31 @@
         <v>1765</v>
       </c>
       <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
         <v>1264.899823143351</v>
       </c>
-      <c r="F55">
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
         <v>2.715786035652243</v>
       </c>
-      <c r="G55">
+      <c r="J55">
         <v>-2.706180481819132</v>
       </c>
-      <c r="H55">
+      <c r="K55">
         <v>27289.8396354055</v>
       </c>
-      <c r="I55" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+      <c r="L55" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -2010,22 +2514,31 @@
         <v>1766</v>
       </c>
       <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
         <v>12.47517702549885</v>
       </c>
-      <c r="F56">
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
         <v>-0.9691183484051571</v>
       </c>
-      <c r="G56">
+      <c r="J56">
         <v>0.1809728507841649</v>
       </c>
-      <c r="H56">
+      <c r="K56">
         <v>27302.09148790724</v>
       </c>
-      <c r="I56" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+      <c r="L56" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -2039,22 +2552,31 @@
         <v>1768</v>
       </c>
       <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
         <v>25.59575949009377</v>
       </c>
-      <c r="F57">
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
         <v>-1.836499198479489</v>
       </c>
-      <c r="G57">
+      <c r="J57">
         <v>-0.1671179263512283</v>
       </c>
-      <c r="H57">
+      <c r="K57">
         <v>27327.1499056729</v>
       </c>
-      <c r="I57" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+      <c r="L57" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -2068,22 +2590,31 @@
         <v>1769</v>
       </c>
       <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
         <v>12.64423606528362</v>
       </c>
-      <c r="F58">
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
         <v>-1.530310538753543</v>
       </c>
-      <c r="G58">
+      <c r="J58">
         <v>0.0996391493335807</v>
       </c>
-      <c r="H58">
+      <c r="K58">
         <v>27340.16242442283</v>
       </c>
-      <c r="I58" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+      <c r="L58" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -2097,22 +2628,31 @@
         <v>1770</v>
       </c>
       <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
         <v>12.5971306548563</v>
       </c>
-      <c r="F59">
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
         <v>-1.223801256598705</v>
       </c>
-      <c r="G59">
+      <c r="J59">
         <v>-0.01533163524593177</v>
       </c>
-      <c r="H59">
+      <c r="K59">
         <v>27352.80666048811</v>
       </c>
-      <c r="I59" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+      <c r="L59" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -2126,22 +2666,31 @@
         <v>1771</v>
       </c>
       <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
         <v>23.20820445037316</v>
       </c>
-      <c r="F60">
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
         <v>-1.305201694265891</v>
       </c>
-      <c r="G60">
+      <c r="J60">
         <v>0.03034269269324871</v>
       </c>
-      <c r="H60">
+      <c r="K60">
         <v>27365.40379114297</v>
       </c>
-      <c r="I60" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+      <c r="L60" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -2155,22 +2704,31 @@
         <v>1773</v>
       </c>
       <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
         <v>34.456874764448</v>
       </c>
-      <c r="F61">
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
         <v>-1.639802592446514</v>
       </c>
-      <c r="G61">
+      <c r="J61">
         <v>-0.09062660158489143</v>
       </c>
-      <c r="H61">
+      <c r="K61">
         <v>27400.21928688452</v>
       </c>
-      <c r="I61" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+      <c r="L61" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -2184,22 +2742,31 @@
         <v>1775</v>
       </c>
       <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
         <v>41.78436304307252</v>
       </c>
-      <c r="F62">
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
         <v>-1.095450470097568</v>
       </c>
-      <c r="G62">
+      <c r="J62">
         <v>0.0612476728704989</v>
       </c>
-      <c r="H62">
+      <c r="K62">
         <v>27443.71051835242</v>
       </c>
-      <c r="I62" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+      <c r="L62" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -2213,22 +2780,31 @@
         <v>1776</v>
       </c>
       <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
         <v>21.47750869284573</v>
       </c>
-      <c r="F63">
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
         <v>-1.303367942610337</v>
       </c>
-      <c r="G63">
+      <c r="J63">
         <v>-0.06742437242755824</v>
       </c>
-      <c r="H63">
+      <c r="K63">
         <v>27464.85323340086</v>
       </c>
-      <c r="I63" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+      <c r="L63" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -2242,22 +2818,31 @@
         <v>1788</v>
       </c>
       <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
         <v>219.7798828132327</v>
       </c>
-      <c r="F64">
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
         <v>-2.996890153055212</v>
       </c>
-      <c r="G64">
+      <c r="J64">
         <v>0.3614021000029659</v>
       </c>
-      <c r="H64">
+      <c r="K64">
         <v>27686.28243759581</v>
       </c>
-      <c r="I64" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+      <c r="L64" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -2271,22 +2856,31 @@
         <v>1826</v>
       </c>
       <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
         <v>570.7407078778269</v>
       </c>
-      <c r="F65">
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
         <v>-4.047118092241034</v>
       </c>
-      <c r="G65">
+      <c r="J65">
         <v>-2.819358949109247</v>
       </c>
-      <c r="H65">
+      <c r="K65">
         <v>28258.19292426085</v>
       </c>
-      <c r="I65" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+      <c r="L65" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -2300,22 +2894,31 @@
         <v>1926</v>
       </c>
       <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
         <v>1701.564347687097</v>
       </c>
-      <c r="F66">
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
         <v>1.224496329143648</v>
       </c>
-      <c r="G66">
+      <c r="J66">
         <v>1.192672554068895</v>
       </c>
-      <c r="H66">
+      <c r="K66">
         <v>29960.16921044251</v>
       </c>
-      <c r="I66" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+      <c r="L66" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -2329,22 +2932,31 @@
         <v>2002</v>
       </c>
       <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
         <v>1238.094529523736</v>
       </c>
-      <c r="F67">
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
         <v>0.5497540025124052</v>
       </c>
-      <c r="G67">
+      <c r="J67">
         <v>-2.281667608214841</v>
       </c>
-      <c r="H67">
+      <c r="K67">
         <v>31197.91396268688</v>
       </c>
-      <c r="I67" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+      <c r="L67" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -2358,22 +2970,31 @@
         <v>2102</v>
       </c>
       <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
         <v>1478.37646889903</v>
       </c>
-      <c r="F68">
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
         <v>1.309943888990366</v>
       </c>
-      <c r="G68">
+      <c r="J68">
         <v>3.513903955135374</v>
       </c>
-      <c r="H68">
+      <c r="K68">
         <v>32680.45041225256</v>
       </c>
-      <c r="I68" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+      <c r="L68" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -2387,22 +3008,31 @@
         <v>2121</v>
       </c>
       <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
         <v>292.6010743627921</v>
       </c>
-      <c r="F69">
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69">
         <v>-4.295350749098601</v>
       </c>
-      <c r="G69">
+      <c r="J69">
         <v>-0.9351353751330883</v>
       </c>
-      <c r="H69">
+      <c r="K69">
         <v>32968.08123353563</v>
       </c>
-      <c r="I69" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+      <c r="L69" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -2416,22 +3046,31 @@
         <v>2122</v>
       </c>
       <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
         <v>20.36903480348701</v>
       </c>
-      <c r="F70">
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
         <v>-0.4008727633516296</v>
       </c>
-      <c r="G70">
+      <c r="J70">
         <v>0.08839089202534364</v>
       </c>
-      <c r="H70">
+      <c r="K70">
         <v>32987.48775325742</v>
       </c>
-      <c r="I70" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+      <c r="L70" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -2445,22 +3084,31 @@
         <v>2123</v>
       </c>
       <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
         <v>18.65366707263456</v>
       </c>
-      <c r="F71">
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71">
         <v>-2.043470506630904</v>
       </c>
-      <c r="G71">
+      <c r="J71">
         <v>-0.3949548349024165</v>
       </c>
-      <c r="H71">
+      <c r="K71">
         <v>33007.85678806091</v>
       </c>
-      <c r="I71" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+      <c r="L71" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -2474,22 +3122,31 @@
         <v>2198</v>
       </c>
       <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
         <v>1192.852900399776</v>
       </c>
-      <c r="F72">
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
         <v>-1.802040962007777</v>
       </c>
-      <c r="G72">
+      <c r="J72">
         <v>3.068620452199015</v>
       </c>
-      <c r="H72">
+      <c r="K72">
         <v>34200.78255050487</v>
       </c>
-      <c r="I72" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+      <c r="L72" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -2503,22 +3160,31 @@
         <v>2200</v>
       </c>
       <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
         <v>39.58186892988306</v>
       </c>
-      <c r="F73">
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73">
         <v>-1.742113006776057</v>
       </c>
-      <c r="G73">
+      <c r="J73">
         <v>-0.09555382349409856</v>
       </c>
-      <c r="H73">
+      <c r="K73">
         <v>34238.04518095243</v>
       </c>
-      <c r="I73" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+      <c r="L73" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -2532,22 +3198,31 @@
         <v>2205</v>
       </c>
       <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
         <v>89.59064185099123</v>
       </c>
-      <c r="F74">
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74">
         <v>-1.56225071611269</v>
       </c>
-      <c r="G74">
+      <c r="J74">
         <v>0.2878333828145256</v>
       </c>
-      <c r="H74">
+      <c r="K74">
         <v>34329.76387617397</v>
       </c>
-      <c r="I74" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+      <c r="L74" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -2561,22 +3236,31 @@
         <v>2212</v>
       </c>
       <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
         <v>113.1510649064658</v>
       </c>
-      <c r="F75">
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75">
         <v>-3.364038488402069</v>
       </c>
-      <c r="G75">
+      <c r="J75">
         <v>-0.4501397728075357</v>
       </c>
-      <c r="H75">
+      <c r="K75">
         <v>34444.95607409305</v>
       </c>
-      <c r="I75" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+      <c r="L75" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -2590,22 +3274,31 @@
         <v>2214</v>
       </c>
       <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
         <v>35.79399999910675</v>
       </c>
-      <c r="F76">
+      <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76">
         <v>-2.850329613276325</v>
       </c>
-      <c r="G76">
+      <c r="J76">
         <v>0.02429351747549238</v>
       </c>
-      <c r="H76">
+      <c r="K76">
         <v>34478.64256680803</v>
       </c>
-      <c r="I76" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+      <c r="L76" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -2619,22 +3312,31 @@
         <v>2222</v>
       </c>
       <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
         <v>122.4589308720097</v>
       </c>
-      <c r="F77">
+      <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77">
         <v>-4.546921201111702</v>
       </c>
-      <c r="G77">
+      <c r="J77">
         <v>-0.6813108349116376</v>
       </c>
-      <c r="H77">
+      <c r="K77">
         <v>34607.49054998222</v>
       </c>
-      <c r="I77" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+      <c r="L77" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -2648,22 +3350,31 @@
         <v>2287</v>
       </c>
       <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78">
         <v>960.2820784139185</v>
       </c>
-      <c r="F78">
+      <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="I78">
         <v>-0.7150572444261751</v>
       </c>
-      <c r="G78">
+      <c r="J78">
         <v>3.259001777288007</v>
       </c>
-      <c r="H78">
+      <c r="K78">
         <v>35558.74507355536</v>
       </c>
-      <c r="I78" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+      <c r="L78" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -2677,22 +3388,31 @@
         <v>2291</v>
       </c>
       <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
         <v>74.4020240477912</v>
       </c>
-      <c r="F79">
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
         <v>0.5490306867231698</v>
       </c>
-      <c r="G79">
+      <c r="J79">
         <v>-0.191718887208056</v>
       </c>
-      <c r="H79">
+      <c r="K79">
         <v>35637.23896109535</v>
       </c>
-      <c r="I79" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+      <c r="L79" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -2706,22 +3426,31 @@
         <v>2292</v>
       </c>
       <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80">
         <v>21.65612692477589</v>
       </c>
-      <c r="F80">
+      <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80">
         <v>0.02587660591580461</v>
       </c>
-      <c r="G80">
+      <c r="J80">
         <v>0.330747838116172</v>
       </c>
-      <c r="H80">
+      <c r="K80">
         <v>35654.62396455349</v>
       </c>
-      <c r="I80" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+      <c r="L80" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -2735,22 +3464,31 @@
         <v>2297</v>
       </c>
       <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81">
         <v>75.08637616922351</v>
       </c>
-      <c r="F81">
+      <c r="H81">
+        <v>0</v>
+      </c>
+      <c r="I81">
         <v>-4.258154043925821</v>
       </c>
-      <c r="G81">
+      <c r="J81">
         <v>-0.1576901133683288</v>
       </c>
-      <c r="H81">
+      <c r="K81">
         <v>35740.75139684616</v>
       </c>
-      <c r="I81" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+      <c r="L81" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -2764,22 +3502,31 @@
         <v>2437</v>
       </c>
       <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82">
         <v>2427.044252905944</v>
       </c>
-      <c r="F82">
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
         <v>0.7481270099782461</v>
       </c>
-      <c r="G82">
+      <c r="J82">
         <v>2.10853553547893</v>
       </c>
-      <c r="H82">
+      <c r="K82">
         <v>38159.7139588481</v>
       </c>
-      <c r="I82" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+      <c r="L82" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -2793,22 +3540,31 @@
         <v>2632</v>
       </c>
       <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+      <c r="G83">
         <v>3454.663685947395</v>
       </c>
-      <c r="F83">
+      <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="I83">
         <v>3.065985608365474</v>
       </c>
-      <c r="G83">
+      <c r="J83">
         <v>-2.514697343303455</v>
       </c>
-      <c r="H83">
+      <c r="K83">
         <v>41617.03046649948</v>
       </c>
-      <c r="I83" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+      <c r="L83" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -2822,22 +3578,31 @@
         <v>2663</v>
       </c>
       <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
         <v>490.2055269807897</v>
       </c>
-      <c r="F84">
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
         <v>-2.419328873481414</v>
       </c>
-      <c r="G84">
+      <c r="J84">
         <v>1.944243625895261</v>
       </c>
-      <c r="H84">
+      <c r="K84">
         <v>42106.59193145261</v>
       </c>
-      <c r="I84" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+      <c r="L84" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -2851,19 +3616,28 @@
         <v>2695</v>
       </c>
       <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85">
         <v>527.239657418635</v>
       </c>
-      <c r="F85">
+      <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="I85">
         <v>-5.772312393461049</v>
       </c>
-      <c r="G85">
+      <c r="J85">
         <v>-1.340100708621075</v>
       </c>
-      <c r="H85">
+      <c r="K85">
         <v>42624.02833289102</v>
       </c>
-      <c r="I85" t="s">
-        <v>8</v>
+      <c r="L85" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
